--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed1/result_data_KNN.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.482000000000001</v>
+        <v>6.246</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.760000000000002</v>
+        <v>-8.014999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.581999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,13 +533,13 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>7.748</v>
+        <v>6.728</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.378</v>
+        <v>-8.484999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.056</v>
+        <v>6.555</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>6.2</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.672</v>
+        <v>-8.426</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.292</v>
+        <v>6.533999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.756</v>
+        <v>-8.427000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.353999999999999</v>
+        <v>6.359</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.337999999999999</v>
+        <v>5.654999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.784000000000001</v>
+        <v>-8.16</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
